--- a/Misc/InfLib.xlsx
+++ b/Misc/InfLib.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF1523-2F4B-4941-BED3-B8B4CAF592C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="13995" xr2:uid="{DBA56634-45E5-4A33-80D6-05E5BDACB6FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16125" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,22 +410,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553EC3A9-BC96-490A-9295-C6FE161BDF45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="7" width="9.140625" style="1"/>
-    <col min="8" max="10" width="15.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.1328125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="9.1328125" style="1"/>
+    <col min="8" max="10" width="15.3984375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,8 +493,8 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="M2"/>
+      <c r="N2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -506,7 +503,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -545,8 +542,8 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="M3"/>
+      <c r="N3"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -555,7 +552,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -594,8 +591,8 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="M4"/>
+      <c r="N4"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -604,7 +601,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -643,8 +640,8 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="M5"/>
+      <c r="N5"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -653,7 +650,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -692,8 +689,8 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="M6"/>
+      <c r="N6"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -702,7 +699,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -741,8 +738,8 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="M7"/>
+      <c r="N7"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -751,7 +748,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -790,8 +787,8 @@
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="M8"/>
+      <c r="N8"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -800,7 +797,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -839,8 +836,8 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="M9"/>
+      <c r="N9"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -849,7 +846,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -888,8 +885,8 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="M10"/>
+      <c r="N10"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -898,7 +895,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -937,8 +934,8 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="M11"/>
+      <c r="N11"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -947,7 +944,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -986,8 +983,8 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="M12"/>
+      <c r="N12"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -996,7 +993,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1034,8 +1031,8 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="M13"/>
+      <c r="N13"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1044,7 +1041,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1082,8 +1079,8 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14"/>
+      <c r="N14"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1092,7 +1089,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1130,8 +1127,8 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15"/>
+      <c r="N15"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1140,7 +1137,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1178,8 +1175,8 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="M16"/>
+      <c r="N16"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1188,7 +1185,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1226,8 +1223,8 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="M17"/>
+      <c r="N17"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1236,7 +1233,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1274,8 +1271,8 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18"/>
+      <c r="N18"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1284,7 +1281,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1322,8 +1319,8 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="M19"/>
+      <c r="N19"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1332,7 +1329,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1370,8 +1367,8 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="M20"/>
+      <c r="N20"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1380,7 +1377,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1418,8 +1415,8 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="M21"/>
+      <c r="N21"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1428,7 +1425,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1464,8 +1461,8 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M22"/>
+      <c r="N22"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1474,7 +1471,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1506,8 +1503,8 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="M23"/>
+      <c r="N23"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1516,7 +1513,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1548,8 +1545,8 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="M24"/>
+      <c r="N24"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1558,7 +1555,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1590,8 +1587,8 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="M25"/>
+      <c r="N25"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1600,7 +1597,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1632,8 +1629,8 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="M26"/>
+      <c r="N26"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -1642,7 +1639,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1674,8 +1671,8 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="M27"/>
+      <c r="N27"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -1684,7 +1681,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1716,8 +1713,8 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="M28"/>
+      <c r="N28"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -1726,7 +1723,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1758,8 +1755,8 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="M29"/>
+      <c r="N29"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -1768,7 +1765,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1800,8 +1797,8 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="M30"/>
+      <c r="N30"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -1810,7 +1807,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1842,8 +1839,8 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="M31"/>
+      <c r="N31"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -1852,7 +1849,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1883,8 +1880,8 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="M32"/>
+      <c r="N32"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -1893,7 +1890,7 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1924,8 +1921,8 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="M33"/>
+      <c r="N33"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -1934,7 +1931,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1965,8 +1962,8 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="M34"/>
+      <c r="N34"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -1975,7 +1972,7 @@
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2006,8 +2003,8 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="M35"/>
+      <c r="N35"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -2016,7 +2013,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2047,8 +2044,8 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36"/>
+      <c r="N36"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -2057,7 +2054,7 @@
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2088,8 +2085,8 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="M37"/>
+      <c r="N37"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -2098,7 +2095,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2129,8 +2126,8 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="M38"/>
+      <c r="N38"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -2139,7 +2136,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2170,8 +2167,8 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="M39"/>
+      <c r="N39"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -2180,7 +2177,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2211,8 +2208,8 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="M40"/>
+      <c r="N40"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -2221,7 +2218,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2252,8 +2249,8 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="M41"/>
+      <c r="N41"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -2262,7 +2259,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2292,8 +2289,8 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="M42"/>
+      <c r="N42"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -2302,7 +2299,7 @@
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2328,8 +2325,8 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="M43"/>
+      <c r="N43"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -2338,7 +2335,7 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2364,8 +2361,8 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="M44"/>
+      <c r="N44"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -2374,7 +2371,7 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2400,8 +2397,8 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="M45"/>
+      <c r="N45"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -2410,7 +2407,7 @@
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2436,8 +2433,8 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="M46"/>
+      <c r="N46"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -2446,7 +2443,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2472,8 +2469,8 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="M47"/>
+      <c r="N47"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
@@ -2482,7 +2479,7 @@
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2508,8 +2505,8 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="M48"/>
+      <c r="N48"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
@@ -2518,7 +2515,7 @@
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2544,8 +2541,8 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="M49"/>
+      <c r="N49"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -2554,7 +2551,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2580,8 +2577,8 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="M50"/>
+      <c r="N50"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
@@ -2590,7 +2587,7 @@
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2616,8 +2613,8 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="M51"/>
+      <c r="N51"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -2626,7 +2623,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2652,8 +2649,8 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+      <c r="M52"/>
+      <c r="N52"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -2662,7 +2659,7 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2688,8 +2685,8 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+      <c r="M53"/>
+      <c r="N53"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
@@ -2698,7 +2695,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2724,8 +2721,8 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
+      <c r="M54"/>
+      <c r="N54"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
@@ -2734,7 +2731,7 @@
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2760,8 +2757,8 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
+      <c r="M55"/>
+      <c r="N55"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
@@ -2770,7 +2767,7 @@
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2796,8 +2793,8 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="M56"/>
+      <c r="N56"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
@@ -2806,7 +2803,7 @@
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2832,8 +2829,8 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="M57"/>
+      <c r="N57"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
@@ -2842,7 +2839,7 @@
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2868,8 +2865,8 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+      <c r="M58"/>
+      <c r="N58"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
@@ -2878,7 +2875,7 @@
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2904,8 +2901,8 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+      <c r="M59"/>
+      <c r="N59"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
@@ -2914,7 +2911,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2940,8 +2937,8 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+      <c r="M60"/>
+      <c r="N60"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
@@ -2950,7 +2947,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2976,8 +2973,8 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="M61"/>
+      <c r="N61"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
@@ -2986,7 +2983,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3011,8 +3008,8 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+      <c r="M62"/>
+      <c r="N62"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
@@ -3021,7 +3018,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3042,8 +3039,8 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+      <c r="M63"/>
+      <c r="N63"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
@@ -3052,7 +3049,7 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3073,8 +3070,8 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="M64"/>
+      <c r="N64"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
@@ -3083,7 +3080,7 @@
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3104,8 +3101,8 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+      <c r="M65"/>
+      <c r="N65"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
@@ -3114,7 +3111,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3135,8 +3132,8 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="M66"/>
+      <c r="N66"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -3145,7 +3142,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3166,8 +3163,8 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+      <c r="M67"/>
+      <c r="N67"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
@@ -3176,7 +3173,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3197,8 +3194,8 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="M68"/>
+      <c r="N68"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
@@ -3207,7 +3204,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3228,8 +3225,8 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="M69"/>
+      <c r="N69"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
@@ -3238,7 +3235,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3259,8 +3256,8 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+      <c r="M70"/>
+      <c r="N70"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
@@ -3269,7 +3266,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3290,8 +3287,8 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
+      <c r="M71"/>
+      <c r="N71"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
@@ -3300,7 +3297,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3321,8 +3318,8 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+      <c r="M72"/>
+      <c r="N72"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
@@ -3331,7 +3328,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3362,7 +3359,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3393,7 +3390,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3424,7 +3421,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3455,7 +3452,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3486,7 +3483,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3517,7 +3514,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3548,7 +3545,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3579,7 +3576,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3610,7 +3607,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3641,7 +3638,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3672,7 +3669,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3703,7 +3700,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3734,7 +3731,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3765,7 +3762,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3796,7 +3793,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3827,7 +3824,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3858,7 +3855,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3889,7 +3886,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3920,7 +3917,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3951,7 +3948,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3982,7 +3979,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4013,7 +4010,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4044,7 +4041,7 @@
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4075,7 +4072,7 @@
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4106,7 +4103,7 @@
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4137,7 +4134,7 @@
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4168,7 +4165,7 @@
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4199,7 +4196,7 @@
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4230,7 +4227,7 @@
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4261,7 +4258,7 @@
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4290,7 +4287,7 @@
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4319,7 +4316,7 @@
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4348,7 +4345,7 @@
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4377,7 +4374,7 @@
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4406,7 +4403,7 @@
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4435,7 +4432,7 @@
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4464,7 +4461,7 @@
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4493,7 +4490,7 @@
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4522,7 +4519,7 @@
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4551,7 +4548,7 @@
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4580,7 +4577,7 @@
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4609,7 +4606,7 @@
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4638,7 +4635,7 @@
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4667,7 +4664,7 @@
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4696,7 +4693,7 @@
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4725,7 +4722,7 @@
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4754,7 +4751,7 @@
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4783,7 +4780,7 @@
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4812,7 +4809,7 @@
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4841,7 +4838,7 @@
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4870,7 +4867,7 @@
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4899,7 +4896,7 @@
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4928,7 +4925,7 @@
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4957,7 +4954,7 @@
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4986,7 +4983,7 @@
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5015,7 +5012,7 @@
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5044,7 +5041,7 @@
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5073,7 +5070,7 @@
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5102,7 +5099,7 @@
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5131,7 +5128,7 @@
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5160,7 +5157,7 @@
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5189,7 +5186,7 @@
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5218,7 +5215,7 @@
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5247,7 +5244,7 @@
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5276,7 +5273,7 @@
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5305,7 +5302,7 @@
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5334,7 +5331,7 @@
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5363,7 +5360,7 @@
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5392,7 +5389,7 @@
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5421,7 +5418,7 @@
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5450,7 +5447,7 @@
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5479,7 +5476,7 @@
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5508,7 +5505,7 @@
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5537,7 +5534,7 @@
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5566,7 +5563,7 @@
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5595,7 +5592,7 @@
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5624,7 +5621,7 @@
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5653,7 +5650,7 @@
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5682,7 +5679,7 @@
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5711,7 +5708,7 @@
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5738,7 +5735,7 @@
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5765,7 +5762,7 @@
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5792,7 +5789,7 @@
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5819,7 +5816,7 @@
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5846,7 +5843,7 @@
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5873,7 +5870,7 @@
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5900,7 +5897,7 @@
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5927,7 +5924,7 @@
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5954,7 +5951,7 @@
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5981,7 +5978,7 @@
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6008,7 +6005,7 @@
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6035,7 +6032,7 @@
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6062,7 +6059,7 @@
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6089,7 +6086,7 @@
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6116,7 +6113,7 @@
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6143,7 +6140,7 @@
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -6170,7 +6167,7 @@
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -6197,7 +6194,7 @@
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -6224,7 +6221,7 @@
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -6251,7 +6248,7 @@
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -6278,7 +6275,7 @@
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -6305,7 +6302,7 @@
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -6332,7 +6329,7 @@
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -6359,7 +6356,7 @@
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -6386,7 +6383,7 @@
       <c r="T177" s="2"/>
       <c r="U177" s="2"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -6413,7 +6410,7 @@
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6440,7 +6437,7 @@
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6467,7 +6464,7 @@
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6494,7 +6491,7 @@
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6521,7 +6518,7 @@
       <c r="T182" s="2"/>
       <c r="U182" s="2"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6548,7 +6545,7 @@
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6575,7 +6572,7 @@
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6602,7 +6599,7 @@
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6629,7 +6626,7 @@
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6656,7 +6653,7 @@
       <c r="T187" s="2"/>
       <c r="U187" s="2"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6683,7 +6680,7 @@
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6710,7 +6707,7 @@
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6737,7 +6734,7 @@
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6764,7 +6761,7 @@
       <c r="T191" s="2"/>
       <c r="U191" s="2"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6791,7 +6788,7 @@
       <c r="T192" s="2"/>
       <c r="U192" s="2"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6818,7 +6815,7 @@
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6845,7 +6842,7 @@
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6872,7 +6869,7 @@
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6899,7 +6896,7 @@
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6926,7 +6923,7 @@
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6953,7 +6950,7 @@
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6980,7 +6977,7 @@
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7007,7 +7004,7 @@
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7034,7 +7031,7 @@
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>200</v>
       </c>
